--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Vernon_Wollaston/Thomas_Vernon_Wollaston.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Vernon_Wollaston/Thomas_Vernon_Wollaston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Vernon Wollaston est un malacologiste et un entomologiste britannique, né le 9 mars 1822 à Scotter, Lincolnshire et mort le 4 janvier 1878 à Teignmouth, Devon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts au Jesus College de Cambridge et devient, en 1847, membre de la Linnean Society of London. Wollaston passe l’histoire de 1847-1848 à Madère. Il obtient son Master of Arts à Cambridge en 1849. Durant l’année 1855, il fait quatre longs voyages à Madère. La même année, le Natural History Museum de Londres acquiert sa collection de coléoptères de l’île.
 En 1858, Wollaston retourne dans les îles du nord de l’Atlantique. Il se rend notamment dans les îles Canaries avec Richard Thomas Lowe (1802-1874) et John Gray, voyage que Lowe et Wollaston renouvellent l’année suivante. Les deux hommes se rendent dans les îles du Cap-Vert.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Insecta Maderensia 1854
 On the Variation of Species, with Especial Reference to the Insecta 1856
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 9 octobre 2006).</t>
         </is>
